--- a/doc/tests soamada.xlsx
+++ b/doc/tests soamada.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>Nom du test</t>
   </si>
@@ -435,7 +435,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -508,11 +508,8 @@
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
+      <c r="B8" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">

--- a/doc/tests soamada.xlsx
+++ b/doc/tests soamada.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="96" windowWidth="23784" windowHeight="10344"/>
+    <workbookView xWindow="384" yWindow="96" windowWidth="23784" windowHeight="10344" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Test CU 1 Devenir membre" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+    <sheet name="Test CU 2 Visiter le site" sheetId="2" r:id="rId2"/>
+    <sheet name="Test CU 3 s'authentifier" sheetId="3" r:id="rId3"/>
+    <sheet name="Test CU 4 Gérer les information" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="31">
   <si>
     <t>Nom du test</t>
   </si>
@@ -61,6 +62,54 @@
   </si>
   <si>
     <t>Fonctionnalité non implémentée</t>
+  </si>
+  <si>
+    <t>1. L'internaute rentre dans son moteur de recherche les mots clé de l'association</t>
+  </si>
+  <si>
+    <t>2. Le moteur de recherche affiche à l'internaute les résultats référencés de sa recherche sur l'association</t>
+  </si>
+  <si>
+    <t>3. L'internaute trouve avec les résultats affichés l'association qui l'intéresse</t>
+  </si>
+  <si>
+    <t>4. L'internaute clique sur le lien de l'association</t>
+  </si>
+  <si>
+    <t>5. Le moteur de recherche lui dirige vers la page de l'association</t>
+  </si>
+  <si>
+    <t>6. L'internaute visite le site notamment la page d'accueil où il y a la présentation de l'assocation, les projets, le formulaire de contact</t>
+  </si>
+  <si>
+    <t>Fonctionnalité nécessitant un déploiement</t>
+  </si>
+  <si>
+    <t>1. Le membre clique sur le lien de connexion</t>
+  </si>
+  <si>
+    <t>2. Le site affiche au membre le formulaire de connexion</t>
+  </si>
+  <si>
+    <t>3. Le membre saisit dans ce formulaire son nom d'utilisateur et son mot de passe et valide ses choix</t>
+  </si>
+  <si>
+    <t>6. Le site affiche un message au membre qu'il est connecté</t>
+  </si>
+  <si>
+    <t>7. Le site redirige le membre vers la page d'accueil</t>
+  </si>
+  <si>
+    <t>1. Le membre clique sur le lien de mise à jour de ses informations</t>
+  </si>
+  <si>
+    <t>2. Le site affiche au membre le formulaire où il y a ses informations saisies lors de l'inscription</t>
+  </si>
+  <si>
+    <t>3. Le membre saisit dans ce formulaire les changements qu'il souhaite apporter en les saisissant dans les champs et valide ses choix</t>
+  </si>
+  <si>
+    <t>6. Le site affiche un message au membre que ces informations saisies sont bien modifiées</t>
   </si>
 </sst>
 </file>
@@ -120,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -131,6 +180,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,8 +486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -542,24 +594,269 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="107" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="81.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="108.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/doc/tests soamada.xlsx
+++ b/doc/tests soamada.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="96" windowWidth="23784" windowHeight="10344" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="384" yWindow="96" windowWidth="23784" windowHeight="10344"/>
   </bookViews>
   <sheets>
     <sheet name="Test CU 1 Devenir membre" sheetId="1" r:id="rId1"/>
     <sheet name="Test CU 2 Visiter le site" sheetId="2" r:id="rId2"/>
     <sheet name="Test CU 3 s'authentifier" sheetId="3" r:id="rId3"/>
     <sheet name="Test CU 4 Gérer les information" sheetId="4" r:id="rId4"/>
+    <sheet name="Test CU 5 Contacter l'assoc" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="40">
   <si>
     <t>Nom du test</t>
   </si>
@@ -110,6 +111,33 @@
   </si>
   <si>
     <t>6. Le site affiche un message au membre que ces informations saisies sont bien modifiées</t>
+  </si>
+  <si>
+    <t>1. L'internaute non membre ou le membre de l'association accède au formulaire de contact</t>
+  </si>
+  <si>
+    <t>2. L'internaute non membre ou le membre de l'association saisit son nom, son email et le corps du message</t>
+  </si>
+  <si>
+    <t>3. L'internaute non membre ou le membre de l'association valide ses choix</t>
+  </si>
+  <si>
+    <t>5. L'internaute non membre ou le membre de l'association reçoit la validation de son message par courriel</t>
+  </si>
+  <si>
+    <t>6. L'administrateur du site reçoit une notification qu'il a bien reçu son message</t>
+  </si>
+  <si>
+    <t>7. L'administrateur répond à l'internaute non membre ou au membre de l'assocation par courriel et lui envoie</t>
+  </si>
+  <si>
+    <t>8. L'internaute non membre ou le membre de l'association reçoit un courriel avec la réponse de l'administrateur du site</t>
+  </si>
+  <si>
+    <t>4. Le site enregistre le message de l'internaute non membre ou du membre dans la base de données</t>
+  </si>
+  <si>
+    <t>Fonctionnalité à développer</t>
   </si>
 </sst>
 </file>
@@ -169,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -183,6 +211,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -778,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -804,7 +833,7 @@
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -812,7 +841,7 @@
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -820,7 +849,7 @@
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -828,7 +857,7 @@
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -836,7 +865,7 @@
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -844,7 +873,7 @@
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -852,8 +881,107 @@
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="96" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/doc/tests soamada.xlsx
+++ b/doc/tests soamada.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="96" windowWidth="23784" windowHeight="10344"/>
+    <workbookView xWindow="384" yWindow="96" windowWidth="23784" windowHeight="10344" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Test CU 1 Devenir membre" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Test CU 3 s'authentifier" sheetId="3" r:id="rId3"/>
     <sheet name="Test CU 4 Gérer les information" sheetId="4" r:id="rId4"/>
     <sheet name="Test CU 5 Contacter l'assoc" sheetId="5" r:id="rId5"/>
+    <sheet name="Test CU 6 S'inscrire à la news" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="44">
   <si>
     <t>Nom du test</t>
   </si>
@@ -138,6 +139,18 @@
   </si>
   <si>
     <t>Fonctionnalité à développer</t>
+  </si>
+  <si>
+    <t>6. Le membre reçoit un courriel qu'il est bien inscrit à la lettre d'information</t>
+  </si>
+  <si>
+    <t>1. Le membre se rend sur la page d'inscription à la newsletter</t>
+  </si>
+  <si>
+    <t>2. Le site lui affiche l'interface d'inscription à la newsletter</t>
+  </si>
+  <si>
+    <t>3. Le membre rentre son email et valide</t>
   </si>
 </sst>
 </file>
@@ -515,7 +528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
@@ -896,7 +909,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -961,7 +974,7 @@
       <c r="A7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
@@ -981,6 +994,86 @@
         <v>37</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="74" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
     </row>

--- a/doc/tests soamada.xlsx
+++ b/doc/tests soamada.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="96" windowWidth="23784" windowHeight="10344" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="384" yWindow="96" windowWidth="23784" windowHeight="10344" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Test CU 1 Devenir membre" sheetId="1" r:id="rId1"/>
@@ -820,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -878,8 +878,8 @@
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1007,8 +1007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/doc/tests soamada.xlsx
+++ b/doc/tests soamada.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="96" windowWidth="23784" windowHeight="10344" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="384" yWindow="96" windowWidth="23784" windowHeight="10344" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Test CU 1 Devenir membre" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="Test CU 4 Gérer les information" sheetId="4" r:id="rId4"/>
     <sheet name="Test CU 5 Contacter l'assoc" sheetId="5" r:id="rId5"/>
     <sheet name="Test CU 6 S'inscrire à la news" sheetId="6" r:id="rId6"/>
+    <sheet name="Test CU 7 Faire un don" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="55">
   <si>
     <t>Nom du test</t>
   </si>
@@ -151,6 +152,39 @@
   </si>
   <si>
     <t>3. Le membre rentre son email et valide</t>
+  </si>
+  <si>
+    <t>1. L'internaute non membre ou le membre de l'association clique sur le lien en bas de page "Faire un don"</t>
+  </si>
+  <si>
+    <t>2. L'internaute non membre ou le membre de l'association saisit son don et valide</t>
+  </si>
+  <si>
+    <t>3. L'internaute non membre ou le membre de l'association choisit son mode de paiement et valide</t>
+  </si>
+  <si>
+    <t>4. L'internaute non membre ou le membre de l'association saisit ses coordonnées bancaires</t>
+  </si>
+  <si>
+    <t>5. Le site affiche l'ensembre des coordonnées bancaires saisies et lui demande de valider</t>
+  </si>
+  <si>
+    <t>6. L'internaute non membre ou le membre de l'association valide ses coordonnées</t>
+  </si>
+  <si>
+    <t>7. Le site redirige l'internaute non membre ou le membre de l'association vers le site de la banque</t>
+  </si>
+  <si>
+    <t>8. L'internaute non membre ou le membre de l'association reçoit un code d'authentification sur son téléphone</t>
+  </si>
+  <si>
+    <t>9. L'internaute non membre ou le membre de l'association entre le code d'authentification et valide</t>
+  </si>
+  <si>
+    <t>10. Le système de paiement en ligne valide la transaction de l'internaute ou du membre</t>
+  </si>
+  <si>
+    <t>11. L'internaute non membre ou le membre de l'association reçoit une notification qui confirme son don</t>
   </si>
 </sst>
 </file>
@@ -820,7 +854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1008,7 +1042,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1080,4 +1114,100 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="88.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/tests soamada.xlsx
+++ b/doc/tests soamada.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="96" windowWidth="23784" windowHeight="10344" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="384" yWindow="96" windowWidth="23784" windowHeight="10344"/>
   </bookViews>
   <sheets>
     <sheet name="Test CU 1 Devenir membre" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="54">
   <si>
     <t>Nom du test</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>6. L'internaute visite le site notamment la page d'accueil où il y a la présentation de l'assocation, les projets, le formulaire de contact</t>
-  </si>
-  <si>
-    <t>Fonctionnalité nécessitant un déploiement</t>
   </si>
   <si>
     <t>1. Le membre clique sur le lien de connexion</t>
@@ -562,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -673,7 +670,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -698,55 +695,40 @@
       <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -768,7 +750,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -790,7 +772,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
@@ -798,7 +780,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
@@ -806,7 +788,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
@@ -830,7 +812,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>10</v>
@@ -838,7 +820,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>10</v>
@@ -878,7 +860,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
@@ -886,7 +868,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
@@ -894,7 +876,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
@@ -918,7 +900,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>10</v>
@@ -926,7 +908,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>11</v>
@@ -966,7 +948,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
@@ -974,7 +956,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
@@ -982,7 +964,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
@@ -990,7 +972,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>10</v>
@@ -998,7 +980,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>10</v>
@@ -1006,18 +988,18 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>10</v>
@@ -1025,7 +1007,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>10</v>
@@ -1042,7 +1024,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1065,7 +1047,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
@@ -1073,7 +1055,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
@@ -1081,7 +1063,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
@@ -1105,7 +1087,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>10</v>
@@ -1120,7 +1102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -1144,7 +1126,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
@@ -1152,7 +1134,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
@@ -1160,7 +1142,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
@@ -1168,42 +1150,42 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
